--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14916" windowHeight="3528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="3564"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPageData" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="HomePageData" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G10"/>
 </workbook>
 </file>
 
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,7 +442,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
